--- a/biology/Zoologie/Cicadella/Cicadella.xlsx
+++ b/biology/Zoologie/Cicadella/Cicadella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicadella est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Cicadellidae.
 Ces insectes communément appelés cicadelles, sont des insectes sauteurs et piqueurs et ils se nourrissent de la sève des végétaux grâce à leur rostre.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (22 avril 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (22 avril 2023) :
 Cicadella aequalis Signoret, 1854
 Cicadella antiqua Heer, 1853
 Cicadella aurantiaca Heer, 1853
@@ -545,7 +559,7 @@
 Cicadella scudderi Cockerell, 1920
 Cicadella transversa (O.G. Costa, 1834)
 Cicadella viridis (Linnaeus, 1758)
-Selon Fauna Europaea                                      (22 avril 2023)[2] :
+Selon Fauna Europaea                                      (22 avril 2023) :
 Cicadella lasiocarpae Ossiannilsson, 1981
 Cicadella viridis (Linnaeus, 1758) - cicadelle verte
 Sur les autres projets Wikimedia :
